--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -69,7 +69,7 @@
     <t>查询手机号为15835547888的就诊人信息</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz:8188/backend/merchant_user_drug/list</t>
+    <t>http://mf-backend.lyky.xyz/backend/merchant_user_drug/list</t>
   </si>
   <si>
     <t>post</t>
@@ -200,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -218,6 +218,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,10 +244,130 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,134 +378,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,15 +607,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -636,17 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +657,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,137 +720,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -867,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +879,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,10 +891,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,9 +1254,9 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1261,7 +1264,7 @@
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
@@ -1338,15 +1341,15 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="207" customHeight="1" spans="1:13">
       <c r="A3" s="5" t="s">
@@ -1376,12 +1379,12 @@
       <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="16"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -1411,7 +1414,7 @@
       <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="7"/>
@@ -1444,7 +1447,7 @@
       <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7"/>
@@ -1477,12 +1480,12 @@
       <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" ht="55.5" customHeight="1" spans="1:13">
       <c r="A7" s="5" t="s">
@@ -1512,12 +1515,12 @@
       <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:13">
       <c r="A8" s="5" t="s">
@@ -1547,207 +1550,216 @@
       <c r="I8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:13">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="1:13">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M15">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -69,7 +69,7 @@
     <t>查询手机号为15835547888的就诊人信息</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz/backend/merchant_user_drug/list</t>
+    <t>backend/merchant_user_drug/list</t>
   </si>
   <si>
     <t>post</t>
@@ -201,9 +201,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -218,6 +218,71 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,18 +294,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF00FF00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -251,22 +332,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,61 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,37 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,49 +394,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,133 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,15 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -623,36 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,7 +637,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,15 +700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,149 +708,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -867,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,9 +879,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,10 +888,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,9 +1251,9 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,7 +1261,7 @@
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
@@ -1341,15 +1338,15 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" ht="207" customHeight="1" spans="1:13">
       <c r="A3" s="5" t="s">
@@ -1379,12 +1376,12 @@
       <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="17"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -1414,7 +1411,7 @@
       <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="7"/>
@@ -1447,7 +1444,7 @@
       <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7"/>
@@ -1480,12 +1477,12 @@
       <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="17"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" ht="55.5" customHeight="1" spans="1:13">
       <c r="A7" s="5" t="s">
@@ -1515,12 +1512,12 @@
       <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="17"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:13">
       <c r="A8" s="5" t="s">
@@ -1550,216 +1547,207 @@
       <c r="I8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:13">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="1:13">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M15">
     <extLst/>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D7" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-    <hyperlink ref="D8" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/merchant_user_drug/list"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>module</t>
   </si>
@@ -78,51 +78,24 @@
     <t>{"search":"15835547888","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
-    <t>Host: mf-backend.lyky.xyz:8188
-Connection: keep-alive
-Content-Length: 69
-Accept: application/json, text/plain, */*
-User-Agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/93.0.4577.63 Safari/537.36
-Content-Type: application/json;charset=UTF-8
-Origin: http://mf.lyky.xyz:8188
-Referer: http://mf.lyky.xyz:8188/
-Accept-Encoding: gzip, deflate
-Accept-Language: zh-CN,zh;q=0.9</t>
-  </si>
-  <si>
-    <t>[{"id":71,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","use_number":3,"created_at":"1630463783","updated_at":"1637042712"}]</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>query_002</t>
+  </si>
+  <si>
+    <t>模糊查询_查询手机号为13的就诊人信息</t>
+  </si>
+  <si>
+    <t>{"search":"13","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>query_002</t>
-  </si>
-  <si>
-    <t>模糊查询_查询手机号为13的就诊人信息</t>
-  </si>
-  <si>
-    <t>{"search":"13","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>Host: mf-backend.lyky.xyz:8188
-Connection: keep-alive
-Content-Length: 60
-Accept: application/json, text/plain, */*
-User-Agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/93.0.4577.63 Safari/537.36
-Content-Type: application/json;charset=UTF-8
-Origin: http://mf.lyky.xyz:8188
-Referer: http://mf.lyky.xyz:8188/
-Accept-Encoding: gzip, deflate
-Accept-Language: zh-CN,zh;q=0.9</t>
-  </si>
-  <si>
-    <t>[{"id":69,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","use_number":7,"created_at":"1629775691","updated_at":"1637042513"},{"id":68,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","use_number":14,"created_at":"1629774098","updated_at":"1637042548"},{"id":59,"merchant_id":31,"shop_id":6,"shop_name":"德胜测试门店","name":"荆珊珊","card_no":"152126198104272423","phone":"13699568575","birthday":"1981-04-27","sex":2,"age":40,"address":"金家坝","use_number":1,"created_at":"1627530443","updated_at":"1627530443"}]</t>
-  </si>
-  <si>
     <t>query_003</t>
   </si>
   <si>
@@ -132,9 +105,6 @@
     <t>{"search":"13655555555","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>query_004</t>
   </si>
   <si>
@@ -144,9 +114,6 @@
     <t>{"search":"","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
-    <t>[{"id":71,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","use_number":3,"created_at":"1630463783","updated_at":"1637042712"},{"id":69,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","use_number":7,"created_at":"1629775691","updated_at":"1637042513"},{"id":68,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","use_number":14,"created_at":"1629774098","updated_at":"1637042548"},{"id":67,"merchant_id":31,"shop_id":6,"shop_name":"德胜测试门店","name":"余龙艳","card_no":"342901198907176648","phone":"18155458989","birthday":"1989-07-17","sex":2,"age":32,"address":"","use_number":1,"created_at":"1629773729","updated_at":"1629773729"},{"id":66,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","use_number":1,"created_at":"1629268043","updated_at":"1629268043"},{"id":65,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"钱合明","card_no":"342623199006205516","phone":"18155458950","birthday":"1990-06-20","sex":1,"age":31,"address":"合肥","use_number":2,"created_at":"1629187043","updated_at":"1629187778"},{"id":63,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"唐先菊","card_no":"342626199310090847","phone":"18155458949","birthday":"1993-10-09","sex":2,"age":28,"address":"","use_number":2,"created_at":"1629186795","updated_at":"1629187739"},{"id":62,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"梁博宇","card_no":"34010420170920807X","phone":"18155458948","birthday":"2017-09-20","sex":1,"age":4,"address":"合肥南湖春城","use_number":2,"created_at":"1629186549","updated_at":"1629187700"},{"id":61,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","use_number":33,"created_at":"1629181123","updated_at":"1637042465"},{"id":59,"merchant_id":31,"shop_id":6,"shop_name":"德胜测试门店","name":"荆珊珊","card_no":"152126198104272423","phone":"13699568575","birthday":"1981-04-27","sex":2,"age":40,"address":"金家坝","use_number":1,"created_at":"1627530443","updated_at":"1627530443"}]</t>
-  </si>
-  <si>
     <t>query_005</t>
   </si>
   <si>
@@ -156,21 +123,6 @@
     <t>{"search":"马一鸣","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
-    <t>Host: mf-backend.lyky.xyz:8188
-Connection: keep-alive
-Content-Length: 67
-Accept: application/json, text/plain, */*
-User-Agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/93.0.4577.63 Safari/537.36
-Content-Type: application/json;charset=UTF-8
-Origin: http://mf.lyky.xyz:8188
-Referer: http://mf.lyky.xyz:8188/
-Accept-Encoding: gzip, deflate
-Accept-Language: zh-CN,zh;q=0.9</t>
-  </si>
-  <si>
-    <t>[{"id":68,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","use_number":14,"created_at":"1629774098","updated_at":"1637042548"}]</t>
-  </si>
-  <si>
     <t>query_006</t>
   </si>
   <si>
@@ -178,9 +130,6 @@
   </si>
   <si>
     <t>{"search":"王","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>[{"id":61,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","use_number":33,"created_at":"1629181123","updated_at":"1637042465"},{"id":58,"merchant_id":31,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","name":"王殿楠","card_no":"231281200102160013","phone":"15566998741","birthday":"2001-02-16","sex":1,"age":20,"address":"王家坝","use_number":1,"created_at":"1627530013","updated_at":"1627530013"}]</t>
   </si>
   <si>
     <t>query_007</t>
@@ -236,35 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +199,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -286,44 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -364,13 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +306,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,19 +343,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,85 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,73 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,6 +602,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,15 +632,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -700,6 +640,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,28 +806,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1250,499 +1199,368 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="193" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="207" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7"/>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="16"/>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="7"/>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="129" customHeight="1" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" ht="89" customHeight="1" spans="1:13">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
       <c r="M6" s="16"/>
     </row>
     <row r="7" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7"/>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="16"/>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7"/>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
       <c r="M8" s="16"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="16"/>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="16"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M15">
@@ -1757,14 +1575,186 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" ht="84" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="96" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="96" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="96" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="96" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1783,7 +1773,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t>module</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>{"search":"13","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>json</t>
   </si>
   <si>
     <t>query_003</t>
@@ -154,7 +151,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,21 +168,29 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF00FF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -206,15 +219,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,8 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,25 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,43 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,181 +332,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +535,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,6 +572,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,57 +619,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +790,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,6 +800,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,18 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,72 +1174,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="56" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="193" customHeight="1" spans="1:13">
+    <row r="2" ht="207" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1272,298 +1249,386 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" ht="207" customHeight="1" spans="1:13">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="1:11">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" ht="129" customHeight="1" spans="1:11">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" ht="89" customHeight="1" spans="1:13">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" ht="84" customHeight="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" ht="129" customHeight="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" ht="89" customHeight="1" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" ht="55.5" customHeight="1" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="6"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:13">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="6"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" ht="52.5" customHeight="1" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" ht="51.75" customHeight="1" spans="1:13">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" ht="35.25" customHeight="1" spans="1:13">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:13">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M15">
+  <autoFilter ref="A1:M14">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,127 +1640,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="A1" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" ht="84" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="96" spans="1:10">
+    <row r="2" ht="84" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="84" spans="1:10">
+    <row r="3" ht="96" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="96" spans="1:14">
+    <row r="4" ht="84" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" ht="96" spans="1:10">
@@ -1703,26 +1765,26 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1731,26 +1793,54 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="96" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1773,7 +1863,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J8"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/database/PatientListApi.xlsx
+++ b/database/PatientListApi.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试环境" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>module</t>
   </si>
@@ -66,70 +66,88 @@
     <t>query_001</t>
   </si>
   <si>
+    <t>查询手机号为18919624868的就诊人信息</t>
+  </si>
+  <si>
+    <t>backend/merchant_user_drug/list</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"search":"18919624868","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>query_002</t>
+  </si>
+  <si>
+    <t>模糊查询_查询手机号为13的就诊人信息</t>
+  </si>
+  <si>
+    <t>{"search":"13","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>错误查询，不存在的手机号【13655555555】</t>
+  </si>
+  <si>
+    <t>{"search":"13655555555","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询全部数据前十条</t>
+  </si>
+  <si>
+    <t>{"search":"","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询完整正确姓名【许全书】</t>
+  </si>
+  <si>
+    <t>{"search":"许全书","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>query_006</t>
+  </si>
+  <si>
+    <t>模糊查询_输入姓名【王】</t>
+  </si>
+  <si>
+    <t>{"search":"王","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
+    <t>query_007</t>
+  </si>
+  <si>
+    <t>错误查询，不存在的姓名【王海韬】</t>
+  </si>
+  <si>
+    <t>{"search":"王海韬","page":1,"limit":10,"sort":"created_at desc"}</t>
+  </si>
+  <si>
     <t>查询手机号为15835547888的就诊人信息</t>
   </si>
   <si>
-    <t>backend/merchant_user_drug/list</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"search":"15835547888","page":1,"limit":10,"sort":"created_at desc"}</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>query_002</t>
-  </si>
-  <si>
-    <t>模糊查询_查询手机号为13的就诊人信息</t>
-  </si>
-  <si>
-    <t>{"search":"13","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>query_003</t>
-  </si>
-  <si>
-    <t>错误查询，不存在的手机号【13655555555】</t>
-  </si>
-  <si>
-    <t>{"search":"13655555555","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>query_004</t>
-  </si>
-  <si>
-    <t>查询全部数据前十条</t>
-  </si>
-  <si>
-    <t>{"search":"","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>query_005</t>
-  </si>
-  <si>
     <t>查询完整正确姓名【马一鸣】</t>
   </si>
   <si>
     <t>{"search":"马一鸣","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>query_006</t>
-  </si>
-  <si>
-    <t>模糊查询_输入姓名【王】</t>
-  </si>
-  <si>
-    <t>{"search":"王","page":1,"limit":10,"sort":"created_at desc"}</t>
-  </si>
-  <si>
-    <t>query_007</t>
   </si>
   <si>
     <t>错误查询，不存在的姓名【王海】</t>
@@ -146,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,6 +182,58 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +245,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -182,38 +260,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,30 +308,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -260,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,44 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -326,19 +344,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,151 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,6 +564,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,8 +594,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,7 +637,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -789,6 +807,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,20 +832,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1179,453 +1197,446 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="207" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" ht="84" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" ht="129" customHeight="1" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="89" customHeight="1" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14">
@@ -1640,209 +1651,267 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J7"/>
+      <selection activeCell="A1" sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="84" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" ht="96" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" ht="84" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" ht="96" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" ht="84" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="84" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" ht="96" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" ht="96" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" ht="96" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" ht="96" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="96" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" ht="96" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,7 +1932,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
